--- a/Items.xlsx
+++ b/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benji\Codes\Human-Following-Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C5365-592D-4AA6-BE91-6F8BA235C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B2ACD-B718-45F5-86DC-7364E7FD6EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6165" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Price (All)</t>
   </si>
@@ -127,19 +127,29 @@
   </si>
   <si>
     <t>ITEM RECEIVED</t>
+  </si>
+  <si>
+    <t>✔️</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +437,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,7 +725,7 @@
   <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -754,10 +767,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -768,10 +783,12 @@
       <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -782,10 +799,12 @@
       <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -796,10 +815,12 @@
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -810,10 +831,12 @@
       <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>6</v>
       </c>
@@ -824,10 +847,12 @@
       <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -838,10 +863,12 @@
       <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>8</v>
       </c>
@@ -852,7 +879,9 @@
       <c r="E11" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -869,7 +898,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>10</v>
       </c>
@@ -880,7 +909,9 @@
       <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -895,9 +926,11 @@
         <v>4</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>12</v>
       </c>
@@ -908,10 +941,12 @@
       <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>13</v>
       </c>
@@ -922,10 +957,12 @@
       <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>14</v>
       </c>
@@ -936,10 +973,12 @@
       <c r="E17" s="11">
         <v>1</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <v>15</v>
       </c>
@@ -950,10 +989,12 @@
       <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>16</v>
       </c>
@@ -966,10 +1007,12 @@
       <c r="E19" s="8">
         <v>2</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <v>17</v>
       </c>
@@ -980,9 +1023,12 @@
       <c r="E20" s="1">
         <v>2</v>
       </c>
+      <c r="F20" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>18</v>
       </c>
@@ -993,10 +1039,12 @@
       <c r="E21" s="9">
         <v>2</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>18</v>
       </c>
@@ -1009,10 +1057,12 @@
       <c r="E22" s="8">
         <v>3</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>18</v>
       </c>
@@ -1023,9 +1073,12 @@
       <c r="E23" s="1">
         <v>3</v>
       </c>
+      <c r="F23" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>18</v>
       </c>
@@ -1036,9 +1089,12 @@
       <c r="E24" s="1">
         <v>3</v>
       </c>
+      <c r="F24" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>18</v>
       </c>
@@ -1046,9 +1102,12 @@
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F25" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>18</v>
       </c>
@@ -1059,10 +1118,12 @@
       <c r="E26" s="9">
         <v>2</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>18</v>
       </c>
@@ -1075,10 +1136,12 @@
       <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>18</v>
       </c>
@@ -1089,7 +1152,9 @@
         <v>12</v>
       </c>
       <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="F28" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1099,5 +1164,6 @@
     <mergeCell ref="C19:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>